--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_rope_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_rope_1_1.xlsx
@@ -668,7 +668,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rope"]  “Better to jimmy open a Lungmen treasury box than charge an open door.” No wonder a mentor once said that. Kinda makes sense now.
+    <t xml:space="preserve">[name="Rope"]  'Better to jimmy open a Lungmen treasury box than charge an open door.' No wonder a mentor once said that. Kinda makes sense now.
 </t>
   </si>
   <si>
